--- a/Day06/Day06Excel.xlsx
+++ b/Day06/Day06Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e80182422bf530f5/Documents/DeetsDigital/Data/Training/Excel/Day06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{583A6FDB-49B8-4610-8DC3-F947220EB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B673E078-7D57-4623-8583-F6EEE83D65E7}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{583A6FDB-49B8-4610-8DC3-F947220EB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AEF36A-43CB-413A-8B4B-2F2639E18813}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4DACF12-E4B7-4966-855F-1D646A140E56}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Marks1</t>
   </si>
@@ -56,6 +56,60 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Price </t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Cost of Goods</t>
+  </si>
+  <si>
+    <t>Early pay discount</t>
+  </si>
+  <si>
+    <t>Discount amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base salary </t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Tax to pay</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Jan Income</t>
+  </si>
+  <si>
+    <t>Feb income</t>
+  </si>
+  <si>
+    <t>Mar income</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Test Results</t>
   </si>
 </sst>
 </file>
@@ -112,30 +166,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,19 +500,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8B7A9E-39A5-41D6-A85F-6C1DFFD473C6}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -472,126 +527,126 @@
         <v>4</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>23</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>56</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>B4+A4</f>
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>45</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>90</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C12" si="0">B5+A5</f>
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>34</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>77</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>76</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>98</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>89</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>34</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>67</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>45</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>34</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>76</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>66</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>34</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>75</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>45</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -602,128 +657,345 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>23</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>56</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>0.2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>(A17+B17)*$C$17</f>
         <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>45</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>90</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:D25" si="1">(A18+B18)*$C$17</f>
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>34</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>77</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>22.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>76</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>98</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>34.800000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>89</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>34</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
         <v>24.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>67</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>45</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>22.400000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>34</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>76</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>(A23+B23)*$C$17</f>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>66</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>34</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>75</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>45</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <f>A28-A29/A30</f>
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <f>7+3*4</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <f>(A28-A29)/A30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
+        <f>A28/A28*A30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f>A29/A30</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2">
+        <v>29.99</v>
+      </c>
+      <c r="C36" s="2">
+        <f>B36-A36</f>
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>3296.99</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C39" s="2">
+        <f>A39-B39/100</f>
+        <v>3296.9894999999997</v>
+      </c>
+      <c r="D39" s="2">
+        <f>A39/B39</f>
+        <v>65939.799999999988</v>
+      </c>
+      <c r="E39" s="4">
+        <f>A39-B39</f>
+        <v>3296.9399999999996</v>
+      </c>
+      <c r="F39" s="2">
+        <f>A39*B39</f>
+        <v>164.84950000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>3296.99</v>
+      </c>
+      <c r="B42" s="2">
+        <v>495.22</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D42" s="2">
+        <f>(A42+B42)*C42</f>
+        <v>1061.8188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>5494.95</v>
+      </c>
+      <c r="B46" s="2">
+        <v>6221.2</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4858.26</v>
+      </c>
+      <c r="D46" s="6">
+        <f>SUM(A46:C46)</f>
+        <v>16574.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>5924.95</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4621.25</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5494.95</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" ref="D47:D48" si="2">SUM(A47:C47)</f>
+        <v>16041.150000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1360</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1786</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1550</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="2"/>
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <f>AVERAGE(A52:A55)</f>
+        <v>6.75</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
